--- a/tabelas/cotacoes.xlsx
+++ b/tabelas/cotacoes.xlsx
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12226.59</v>
+        <v>12226.58</v>
       </c>
       <c r="C4" t="n">
         <v>12157.23</v>

--- a/tabelas/cotacoes.xlsx
+++ b/tabelas/cotacoes.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>4136.25</v>
+      </c>
+      <c r="C2" t="n">
         <v>4169.48</v>
       </c>
-      <c r="C2" t="n">
-        <v>4154.52</v>
-      </c>
       <c r="D2" t="n">
-        <v>3919.29</v>
+        <v>4109.31</v>
       </c>
       <c r="E2" t="n">
-        <v>0.83</v>
+        <v>1.85</v>
       </c>
       <c r="F2" t="n">
-        <v>0.36</v>
+        <v>-0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>6.38</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="C3" t="n">
         <v>15.78</v>
       </c>
-      <c r="C3" t="n">
-        <v>16.46</v>
-      </c>
       <c r="D3" t="n">
-        <v>23.73</v>
+        <v>18.7</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.340000000000001</v>
+        <v>-14.44</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.130000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="G3" t="n">
-        <v>-33.5</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12235.41</v>
+      </c>
+      <c r="C4" t="n">
         <v>12226.58</v>
       </c>
-      <c r="C4" t="n">
-        <v>12157.23</v>
-      </c>
       <c r="D4" t="n">
-        <v>11428.15</v>
+        <v>12221.91</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>6.99</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>105148.48</v>
+      </c>
+      <c r="C5" t="n">
         <v>104431.63</v>
       </c>
-      <c r="C5" t="n">
-        <v>103912.94</v>
-      </c>
       <c r="D5" t="n">
-        <v>102932.38</v>
+        <v>101882.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1.47</v>
+        <v>2.91</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>1.46</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>20049.31</v>
+      </c>
+      <c r="C6" t="n">
         <v>19894.57</v>
       </c>
-      <c r="C6" t="n">
-        <v>20367.76</v>
-      </c>
       <c r="D6" t="n">
-        <v>19247.96</v>
+        <v>20400.11</v>
       </c>
       <c r="E6" t="n">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.32</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>3.36</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>261.604</v>
+      </c>
+      <c r="C7" t="n">
         <v>268.1555</v>
       </c>
-      <c r="C7" t="n">
-        <v>275.0227</v>
-      </c>
       <c r="D7" t="n">
-        <v>261.0754</v>
+        <v>267.7273</v>
       </c>
       <c r="E7" t="n">
-        <v>1.11</v>
+        <v>1.87</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.5</v>
+        <v>-2.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2.71</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>4.9382</v>
+      </c>
+      <c r="C8" t="n">
         <v>5.0018</v>
       </c>
-      <c r="C8" t="n">
-        <v>5.0494</v>
-      </c>
       <c r="D8" t="n">
-        <v>5.2487</v>
+        <v>5.0628</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06</v>
+        <v>-1.36</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9400000000000001</v>
+        <v>-1.27</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.7</v>
+        <v>-2.46</v>
       </c>
     </row>
   </sheetData>

--- a/tabelas/cotacoes.xlsx
+++ b/tabelas/cotacoes.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4136.25</v>
+        <v>4137.64</v>
       </c>
       <c r="C2" t="n">
-        <v>4169.48</v>
+        <v>4061.22</v>
       </c>
       <c r="D2" t="n">
-        <v>4109.31</v>
+        <v>4105.02</v>
       </c>
       <c r="E2" t="n">
-        <v>1.85</v>
+        <v>0.45</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8</v>
+        <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19</v>
+        <v>16.94</v>
       </c>
       <c r="C3" t="n">
-        <v>15.78</v>
+        <v>20.09</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.44</v>
+        <v>-4.35</v>
       </c>
       <c r="F3" t="n">
-        <v>8.94</v>
+        <v>-15.68</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.07</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12235.41</v>
+        <v>12306.44</v>
       </c>
       <c r="C4" t="n">
-        <v>12226.58</v>
+        <v>11966.4</v>
       </c>
       <c r="D4" t="n">
-        <v>12221.91</v>
+        <v>12087.96</v>
       </c>
       <c r="E4" t="n">
-        <v>2.25</v>
+        <v>1.04</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06999999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="G4" t="n">
-        <v>0.11</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105148.48</v>
+        <v>107448.21</v>
       </c>
       <c r="C5" t="n">
-        <v>104431.63</v>
+        <v>102174.34</v>
       </c>
       <c r="D5" t="n">
-        <v>101882.2</v>
+        <v>100821.73</v>
       </c>
       <c r="E5" t="n">
-        <v>2.91</v>
+        <v>0.31</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.16</v>
       </c>
       <c r="G5" t="n">
-        <v>3.21</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20049.31</v>
+        <v>19762.2</v>
       </c>
       <c r="C6" t="n">
-        <v>19894.57</v>
+        <v>19948.73</v>
       </c>
       <c r="D6" t="n">
-        <v>20400.11</v>
+        <v>20331.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>-0.53</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7799999999999999</v>
+        <v>-0.9400000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.72</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.604</v>
+        <v>262.2195</v>
       </c>
       <c r="C7" t="n">
-        <v>268.1555</v>
+        <v>256.8086</v>
       </c>
       <c r="D7" t="n">
-        <v>267.7273</v>
+        <v>271.9885</v>
       </c>
       <c r="E7" t="n">
-        <v>1.87</v>
+        <v>-0.72</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.44</v>
+        <v>2.11</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.29</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.9382</v>
+        <v>4.9472</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0018</v>
+        <v>5.0062</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0628</v>
+        <v>5.065</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.36</v>
+        <v>-0.74</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.27</v>
+        <v>-1.18</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.46</v>
+        <v>-2.33</v>
       </c>
     </row>
   </sheetData>

--- a/tabelas/cotacoes.xlsx
+++ b/tabelas/cotacoes.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4137.64</v>
+        <v>4136.28</v>
       </c>
       <c r="C2" t="n">
-        <v>4061.22</v>
+        <v>4119.17</v>
       </c>
       <c r="D2" t="n">
-        <v>4105.02</v>
+        <v>4146.22</v>
       </c>
       <c r="E2" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>0.42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.79</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.94</v>
+        <v>17.12</v>
       </c>
       <c r="C3" t="n">
-        <v>20.09</v>
+        <v>17.71</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4</v>
+        <v>17.8</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.35</v>
+        <v>0.53</v>
       </c>
       <c r="F3" t="n">
-        <v>-15.68</v>
+        <v>-3.330000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.93</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12306.44</v>
+        <v>12365.21</v>
       </c>
       <c r="C4" t="n">
-        <v>11966.4</v>
+        <v>12179.55</v>
       </c>
       <c r="D4" t="n">
-        <v>12087.96</v>
+        <v>12166.27</v>
       </c>
       <c r="E4" t="n">
-        <v>1.04</v>
+        <v>0.66</v>
       </c>
       <c r="F4" t="n">
-        <v>2.84</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107448.21</v>
+        <v>109029.12</v>
       </c>
       <c r="C5" t="n">
-        <v>102174.34</v>
+        <v>107113.66</v>
       </c>
       <c r="D5" t="n">
-        <v>100821.73</v>
+        <v>106457.85</v>
       </c>
       <c r="E5" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
       <c r="F5" t="n">
-        <v>5.16</v>
+        <v>1.79</v>
       </c>
       <c r="G5" t="n">
-        <v>6.569999999999999</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19762.2</v>
+        <v>19971.13</v>
       </c>
       <c r="C6" t="n">
-        <v>19948.73</v>
+        <v>19867.58</v>
       </c>
       <c r="D6" t="n">
-        <v>20331.2</v>
+        <v>20344.48</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.53</v>
+        <v>1.75</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9400000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.8</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.2195</v>
+        <v>261.6506</v>
       </c>
       <c r="C7" t="n">
-        <v>256.8086</v>
+        <v>264.1221</v>
       </c>
       <c r="D7" t="n">
-        <v>271.9885</v>
+        <v>275.5898</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.72</v>
+        <v>1.44</v>
       </c>
       <c r="F7" t="n">
-        <v>2.11</v>
+        <v>-0.9400000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.59</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.9472</v>
+        <v>4.9099</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0062</v>
+        <v>4.9843</v>
       </c>
       <c r="D8" t="n">
-        <v>5.065</v>
+        <v>4.912</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.74</v>
+        <v>-0.31</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.18</v>
+        <v>-1.49</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.33</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>
